--- a/server/Bulk/BulkUploadFiles/Records.xlsx
+++ b/server/Bulk/BulkUploadFiles/Records.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t>id</t>
   </si>
@@ -56,9 +56,6 @@
     <t>city</t>
   </si>
   <si>
-    <t>location</t>
-  </si>
-  <si>
     <t>myear</t>
   </si>
   <si>
@@ -68,9 +65,6 @@
     <t>kmdriven</t>
   </si>
   <si>
-    <t>images</t>
-  </si>
-  <si>
     <t>owner</t>
   </si>
   <si>
@@ -86,9 +80,6 @@
     <t>mileage</t>
   </si>
   <si>
-    <t>storeId</t>
-  </si>
-  <si>
     <t>Activa</t>
   </si>
   <si>
@@ -122,9 +113,6 @@
     <t>loc</t>
   </si>
   <si>
-    <t>mimage</t>
-  </si>
-  <si>
     <t>Honda SP Shine</t>
   </si>
   <si>
@@ -135,9 +123,6 @@
   </si>
   <si>
     <t>Yamaha Fascino 2016</t>
-  </si>
-  <si>
-    <t>a1,b1,c1</t>
   </si>
 </sst>
 </file>
@@ -458,15 +443,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W7"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -498,7 +483,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>10</v>
@@ -516,33 +501,21 @@
         <v>14</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -559,53 +532,45 @@
         <v>42000</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="L2" s="1">
+        <v>2016</v>
+      </c>
       <c r="M2" s="1">
-        <v>2016</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
-        <v>0</v>
+        <v>21230</v>
       </c>
       <c r="O2" s="1">
-        <v>21230</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q2" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="P2" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>8</v>
+      </c>
       <c r="R2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S2" s="1">
-        <v>100</v>
-      </c>
-      <c r="T2" s="1">
-        <v>8</v>
-      </c>
-      <c r="U2" s="1">
-        <v>2</v>
-      </c>
-      <c r="V2" s="1">
         <v>60</v>
       </c>
-      <c r="W2" s="1">
-        <v>1</v>
-      </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -622,51 +587,45 @@
         <v>30000</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="L3" s="1">
+        <v>2012</v>
+      </c>
       <c r="M3" s="1">
-        <v>2012</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
-        <v>0</v>
+        <v>61416</v>
       </c>
       <c r="O3" s="1">
-        <v>61416</v>
-      </c>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="P3" s="1">
+        <v>120</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>10</v>
+      </c>
       <c r="R3" s="1">
         <v>1</v>
       </c>
       <c r="S3" s="1">
-        <v>120</v>
-      </c>
-      <c r="T3" s="1">
-        <v>10</v>
-      </c>
-      <c r="U3" s="1">
-        <v>1</v>
-      </c>
-      <c r="V3" s="1">
         <v>65</v>
       </c>
-      <c r="W3" s="1">
-        <v>1</v>
-      </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -683,51 +642,45 @@
         <v>120000</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="1">
+        <v>2016</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>14480</v>
+      </c>
+      <c r="O4" s="1">
+        <v>1</v>
+      </c>
+      <c r="P4" s="1">
+        <v>500</v>
+      </c>
+      <c r="Q4" s="1">
         <v>27</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1">
-        <v>2016</v>
-      </c>
-      <c r="N4" s="1">
-        <v>0</v>
-      </c>
-      <c r="O4" s="1">
-        <v>14480</v>
-      </c>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
       <c r="R4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S4" s="1">
-        <v>500</v>
-      </c>
-      <c r="T4" s="1">
-        <v>27</v>
-      </c>
-      <c r="U4" s="1">
-        <v>3</v>
-      </c>
-      <c r="V4" s="1">
         <v>32</v>
       </c>
-      <c r="W4" s="1">
-        <v>1</v>
-      </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -744,51 +697,45 @@
         <v>45000</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="K5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="L5" s="1">
+        <v>2015</v>
+      </c>
       <c r="M5" s="1">
-        <v>2015</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
         <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="P5" s="1">
+        <v>160</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>14</v>
+      </c>
       <c r="R5" s="1">
         <v>1</v>
       </c>
       <c r="S5" s="1">
-        <v>160</v>
-      </c>
-      <c r="T5" s="1">
-        <v>14</v>
-      </c>
-      <c r="U5" s="1">
-        <v>1</v>
-      </c>
-      <c r="V5" s="1">
         <v>62</v>
       </c>
-      <c r="W5" s="1">
-        <v>1</v>
-      </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -805,51 +752,45 @@
         <v>50000</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="L6" s="1">
+        <v>2017</v>
+      </c>
       <c r="M6" s="1">
-        <v>2017</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>0</v>
+        <v>29279</v>
       </c>
       <c r="O6" s="1">
-        <v>29279</v>
-      </c>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="P6" s="1">
+        <v>125</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>12</v>
+      </c>
       <c r="R6" s="1">
         <v>1</v>
       </c>
       <c r="S6" s="1">
-        <v>125</v>
-      </c>
-      <c r="T6" s="1">
-        <v>12</v>
-      </c>
-      <c r="U6" s="1">
-        <v>1</v>
-      </c>
-      <c r="V6" s="1">
         <v>70</v>
       </c>
-      <c r="W6" s="1">
-        <v>3</v>
-      </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
@@ -866,43 +807,37 @@
         <v>40000</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L7" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="L7" s="1">
+        <v>2016</v>
+      </c>
       <c r="M7" s="1">
-        <v>2016</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>0</v>
+        <v>71067</v>
       </c>
       <c r="O7" s="1">
-        <v>71067</v>
-      </c>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="P7" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>12</v>
+      </c>
       <c r="R7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S7" s="1">
-        <v>100</v>
-      </c>
-      <c r="T7" s="1">
-        <v>12</v>
-      </c>
-      <c r="U7" s="1">
-        <v>2</v>
-      </c>
-      <c r="V7" s="1">
         <v>40</v>
-      </c>
-      <c r="W7" s="1">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/server/Bulk/BulkUploadFiles/Records.xlsx
+++ b/server/Bulk/BulkUploadFiles/Records.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
   <si>
     <t>id</t>
   </si>
@@ -123,6 +123,30 @@
   </si>
   <si>
     <t>Yamaha Fascino 2016</t>
+  </si>
+  <si>
+    <t>Working</t>
+  </si>
+  <si>
+    <t>Active-1</t>
+  </si>
+  <si>
+    <t>Honda-1</t>
+  </si>
+  <si>
+    <t>RoyalEnfield-1</t>
+  </si>
+  <si>
+    <t>HondaUnicorn-1</t>
+  </si>
+  <si>
+    <t>HondaSpShine-1</t>
+  </si>
+  <si>
+    <t>YamahaFascino-1,YamahaFascino-2</t>
+  </si>
+  <si>
+    <t>images</t>
   </si>
 </sst>
 </file>
@@ -443,15 +467,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -509,8 +533,11 @@
       <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="T1" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -526,8 +553,12 @@
       <c r="E2" s="1">
         <v>4</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="F2" s="1">
+        <v>11111</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="H2" s="1">
         <v>42000</v>
       </c>
@@ -564,8 +595,11 @@
       <c r="S2" s="1">
         <v>60</v>
       </c>
+      <c r="T2" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -581,8 +615,12 @@
       <c r="E3" s="1">
         <v>4</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="F3" s="1">
+        <v>22222</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="H3" s="1">
         <v>30000</v>
       </c>
@@ -619,8 +657,11 @@
       <c r="S3" s="1">
         <v>65</v>
       </c>
+      <c r="T3" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -636,8 +677,12 @@
       <c r="E4" s="1">
         <v>2</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="F4" s="1">
+        <v>33333</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="H4" s="1">
         <v>120000</v>
       </c>
@@ -674,8 +719,11 @@
       <c r="S4" s="1">
         <v>32</v>
       </c>
+      <c r="T4" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -691,8 +739,12 @@
       <c r="E5" s="1">
         <v>4</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="F5" s="1">
+        <v>44444</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="H5" s="1">
         <v>45000</v>
       </c>
@@ -729,8 +781,11 @@
       <c r="S5" s="1">
         <v>62</v>
       </c>
+      <c r="T5" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -746,8 +801,12 @@
       <c r="E6" s="1">
         <v>4</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="F6" s="1">
+        <v>55555</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="H6" s="1">
         <v>50000</v>
       </c>
@@ -784,8 +843,11 @@
       <c r="S6" s="1">
         <v>70</v>
       </c>
+      <c r="T6" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -801,8 +863,12 @@
       <c r="E7" s="1">
         <v>0</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="F7" s="1">
+        <v>66666</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="H7" s="1">
         <v>40000</v>
       </c>
@@ -838,6 +904,9 @@
       </c>
       <c r="S7" s="1">
         <v>40</v>
+      </c>
+      <c r="T7" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
